--- a/fastqFiles/fastq_fullrun_hbrown_03.04.20.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_03.04.20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/Desktop/6a metadata sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77813C8A-702B-764B-B282-765B723AE424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13DD741-670E-7048-AB51-2E291D0CBA4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11000" yWindow="460" windowWidth="22600" windowHeight="14840" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>02.20.20</t>
   </si>
   <si>
-    <t>BROWN</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>Brent/Brent_6c-21_GTAC21_SIC_Index2_08_CTCAATG_AAGCACGT_S48_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
   </si>
 </sst>
 </file>
@@ -665,13 +665,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CA217D-0C43-0B40-A462-5F05C8B33EE8}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="10" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="4" max="10" width="10.83203125" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="14" max="14" width="13.83203125" customWidth="1"/>
   </cols>
@@ -733,7 +733,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -742,13 +742,13 @@
         <v>4267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -757,13 +757,13 @@
         <v>26.2</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="8">
         <v>7130292</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="11"/>
@@ -784,7 +784,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -793,13 +793,13 @@
         <v>4267</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -814,7 +814,7 @@
         <v>7465391</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N3" s="11"/>
     </row>
@@ -823,7 +823,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -832,13 +832,13 @@
         <v>4267</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -853,7 +853,7 @@
         <v>6918095</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N4" s="11"/>
     </row>
@@ -862,7 +862,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -871,13 +871,13 @@
         <v>4267</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -892,7 +892,7 @@
         <v>6938707</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -900,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -909,13 +909,13 @@
         <v>4267</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -930,7 +930,7 @@
         <v>7422430</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -938,7 +938,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -947,13 +947,13 @@
         <v>4267</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -968,7 +968,7 @@
         <v>7328696</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -976,7 +976,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
@@ -985,13 +985,13 @@
         <v>4267</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -1006,7 +1006,7 @@
         <v>7124114</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -1014,7 +1014,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -1023,13 +1023,13 @@
         <v>4267</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -1044,7 +1044,7 @@
         <v>8048328</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -1061,13 +1061,13 @@
         <v>4267</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -1082,7 +1082,7 @@
         <v>7263049</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -1090,7 +1090,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -1099,13 +1099,13 @@
         <v>4267</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -1120,7 +1120,7 @@
         <v>7789615</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -1128,7 +1128,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
@@ -1137,13 +1137,13 @@
         <v>4267</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -1158,7 +1158,7 @@
         <v>7374019</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -1166,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
@@ -1175,13 +1175,13 @@
         <v>4267</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -1196,7 +1196,7 @@
         <v>7334606</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
@@ -1213,13 +1213,13 @@
         <v>4267</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -1234,7 +1234,7 @@
         <v>7243273</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -1242,7 +1242,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
@@ -1251,13 +1251,13 @@
         <v>4267</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -1272,7 +1272,7 @@
         <v>7156193</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -1280,7 +1280,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3">
         <v>15</v>
@@ -1289,13 +1289,13 @@
         <v>4267</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -1310,7 +1310,7 @@
         <v>7439127</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1318,7 +1318,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
@@ -1327,13 +1327,13 @@
         <v>4267</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1348,7 +1348,7 @@
         <v>6084413</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1356,7 +1356,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
@@ -1365,13 +1365,13 @@
         <v>4267</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1386,7 +1386,7 @@
         <v>7635871</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1394,7 +1394,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
@@ -1403,13 +1403,13 @@
         <v>4267</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1424,7 +1424,7 @@
         <v>10748744</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1432,7 +1432,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
@@ -1441,13 +1441,13 @@
         <v>4267</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1462,7 +1462,7 @@
         <v>7404667</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1470,7 +1470,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C21" s="3">
         <v>20</v>
@@ -1479,13 +1479,13 @@
         <v>4267</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1500,7 +1500,7 @@
         <v>7237524</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1508,7 +1508,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3">
         <v>21</v>
@@ -1517,13 +1517,13 @@
         <v>4267</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1538,7 +1538,7 @@
         <v>7328359</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1546,7 +1546,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C23" s="3">
         <v>22</v>
@@ -1555,13 +1555,13 @@
         <v>4267</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1576,7 +1576,7 @@
         <v>7680303</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1584,7 +1584,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C24" s="3">
         <v>23</v>
@@ -1593,13 +1593,13 @@
         <v>4267</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1614,7 +1614,7 @@
         <v>7433637</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1622,7 +1622,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C25" s="3">
         <v>24</v>
@@ -1631,13 +1631,13 @@
         <v>4267</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1652,7 +1652,7 @@
         <v>7749770</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1660,7 +1660,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C26" s="3">
         <v>25</v>
@@ -1669,13 +1669,13 @@
         <v>4267</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1684,13 +1684,13 @@
         <v>10.4</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K26" s="8">
         <v>7073397</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1698,7 +1698,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C27" s="3">
         <v>26</v>
@@ -1707,13 +1707,13 @@
         <v>4267</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1728,15 +1728,15 @@
         <v>7138988</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -1745,13 +1745,13 @@
         <v>4267</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1760,21 +1760,21 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K28" s="8">
         <v>9761671</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -1783,13 +1783,13 @@
         <v>4267</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1804,15 +1804,15 @@
         <v>7557623</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -1821,13 +1821,13 @@
         <v>4267</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1842,15 +1842,15 @@
         <v>8579039</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C31" s="3">
         <v>4</v>
@@ -1859,13 +1859,13 @@
         <v>4267</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1880,15 +1880,15 @@
         <v>8379765</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C32" s="3">
         <v>5</v>
@@ -1897,13 +1897,13 @@
         <v>4267</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1918,15 +1918,15 @@
         <v>8717628</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C33" s="3">
         <v>6</v>
@@ -1935,13 +1935,13 @@
         <v>4267</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -1956,15 +1956,15 @@
         <v>7862673</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C34" s="3">
         <v>7</v>
@@ -1973,13 +1973,13 @@
         <v>4267</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -1994,15 +1994,15 @@
         <v>7690750</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C35" s="3">
         <v>8</v>
@@ -2011,13 +2011,13 @@
         <v>4267</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -2032,15 +2032,15 @@
         <v>9002102</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C36" s="3">
         <v>9</v>
@@ -2049,13 +2049,13 @@
         <v>4267</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -2070,15 +2070,15 @@
         <v>7737452</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C37" s="3">
         <v>10</v>
@@ -2087,13 +2087,13 @@
         <v>4267</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -2108,15 +2108,15 @@
         <v>6688367</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C38" s="3">
         <v>11</v>
@@ -2125,13 +2125,13 @@
         <v>4267</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -2146,15 +2146,15 @@
         <v>7160307</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C39" s="3">
         <v>12</v>
@@ -2163,13 +2163,13 @@
         <v>4267</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -2184,15 +2184,15 @@
         <v>7412867</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C40" s="3">
         <v>13</v>
@@ -2201,13 +2201,13 @@
         <v>4267</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -2222,15 +2222,15 @@
         <v>8347449</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C41" s="3">
         <v>14</v>
@@ -2239,13 +2239,13 @@
         <v>4267</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2260,15 +2260,15 @@
         <v>6819619</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C42" s="3">
         <v>15</v>
@@ -2277,13 +2277,13 @@
         <v>4267</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -2298,15 +2298,15 @@
         <v>17944222</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C43" s="3">
         <v>16</v>
@@ -2315,13 +2315,13 @@
         <v>4267</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2336,15 +2336,15 @@
         <v>9024416</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C44" s="3">
         <v>17</v>
@@ -2353,13 +2353,13 @@
         <v>4267</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2374,15 +2374,15 @@
         <v>7875841</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C45" s="3">
         <v>18</v>
@@ -2391,13 +2391,13 @@
         <v>4267</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2412,15 +2412,15 @@
         <v>7940535</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C46" s="3">
         <v>19</v>
@@ -2429,13 +2429,13 @@
         <v>4267</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2450,15 +2450,15 @@
         <v>8577090</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C47" s="3">
         <v>20</v>
@@ -2467,13 +2467,13 @@
         <v>4267</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2488,15 +2488,15 @@
         <v>8870876</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C48" s="3">
         <v>21</v>
@@ -2505,13 +2505,13 @@
         <v>4267</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2526,15 +2526,15 @@
         <v>7975280</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C49" s="3">
         <v>22</v>
@@ -2543,13 +2543,13 @@
         <v>4267</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2564,15 +2564,15 @@
         <v>2170432</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C50" s="3">
         <v>23</v>
@@ -2581,13 +2581,13 @@
         <v>4267</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2602,15 +2602,15 @@
         <v>8990865</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C51" s="3">
         <v>24</v>
@@ -2619,13 +2619,13 @@
         <v>4267</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2640,15 +2640,15 @@
         <v>6238903</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C52" s="3">
         <v>25</v>
@@ -2657,13 +2657,13 @@
         <v>4267</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2678,15 +2678,15 @@
         <v>8335257</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C53" s="3">
         <v>26</v>
@@ -2695,13 +2695,13 @@
         <v>4267</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2716,7 +2716,7 @@
         <v>8520786</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_fullrun_hbrown_03.04.20.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_03.04.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13DD741-670E-7048-AB51-2E291D0CBA4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237C478F-92B4-C243-9D54-3C7DBAC17C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="460" windowWidth="22600" windowHeight="14840" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14840" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -343,7 +343,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -666,7 +665,7 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,7 +706,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -729,7 +728,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -756,17 +755,17 @@
       <c r="I2" s="6">
         <v>26.2</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2">
         <v>7130292</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="11"/>
+      <c r="N2" s="10"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -780,7 +779,7 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -807,19 +806,19 @@
       <c r="I3" s="6">
         <v>33.4</v>
       </c>
-      <c r="J3" s="10">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="J3" s="9">
+        <v>5</v>
+      </c>
+      <c r="K3">
         <v>7465391</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="11"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -846,19 +845,19 @@
       <c r="I4" s="6">
         <v>6.74</v>
       </c>
-      <c r="J4" s="10">
-        <v>5</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="J4" s="9">
+        <v>5</v>
+      </c>
+      <c r="K4">
         <v>6918095</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -885,18 +884,18 @@
       <c r="I5" s="6">
         <v>3.62</v>
       </c>
-      <c r="J5" s="10">
-        <v>5</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="J5" s="9">
+        <v>5</v>
+      </c>
+      <c r="K5">
         <v>6938707</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -923,18 +922,18 @@
       <c r="I6" s="6">
         <v>9.43</v>
       </c>
-      <c r="J6" s="10">
-        <v>5</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="J6" s="9">
+        <v>5</v>
+      </c>
+      <c r="K6">
         <v>7422430</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -961,18 +960,18 @@
       <c r="I7" s="6">
         <v>3.48</v>
       </c>
-      <c r="J7" s="10">
-        <v>5</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="J7" s="9">
+        <v>5</v>
+      </c>
+      <c r="K7">
         <v>7328696</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -999,18 +998,18 @@
       <c r="I8" s="6">
         <v>2.84</v>
       </c>
-      <c r="J8" s="10">
-        <v>5</v>
-      </c>
-      <c r="K8" s="8">
+      <c r="J8" s="9">
+        <v>5</v>
+      </c>
+      <c r="K8">
         <v>7124114</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1037,18 +1036,18 @@
       <c r="I9" s="6">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J9" s="10">
-        <v>5</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="J9" s="9">
+        <v>5</v>
+      </c>
+      <c r="K9">
         <v>8048328</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1075,18 +1074,18 @@
       <c r="I10" s="6">
         <v>9.31</v>
       </c>
-      <c r="J10" s="10">
-        <v>5</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="J10" s="9">
+        <v>5</v>
+      </c>
+      <c r="K10">
         <v>7263049</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1113,10 +1112,10 @@
       <c r="I11" s="6">
         <v>12.6</v>
       </c>
-      <c r="J11" s="10">
-        <v>5</v>
-      </c>
-      <c r="K11" s="8">
+      <c r="J11" s="9">
+        <v>5</v>
+      </c>
+      <c r="K11">
         <v>7789615</v>
       </c>
       <c r="L11" s="7" t="s">
@@ -1124,7 +1123,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1151,10 +1150,10 @@
       <c r="I12" s="6">
         <v>7.5</v>
       </c>
-      <c r="J12" s="10">
-        <v>5</v>
-      </c>
-      <c r="K12" s="8">
+      <c r="J12" s="9">
+        <v>5</v>
+      </c>
+      <c r="K12">
         <v>7374019</v>
       </c>
       <c r="L12" s="7" t="s">
@@ -1162,7 +1161,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1189,10 +1188,10 @@
       <c r="I13" s="6">
         <v>6.34</v>
       </c>
-      <c r="J13" s="10">
-        <v>5</v>
-      </c>
-      <c r="K13" s="8">
+      <c r="J13" s="9">
+        <v>5</v>
+      </c>
+      <c r="K13">
         <v>7334606</v>
       </c>
       <c r="L13" s="7" t="s">
@@ -1200,7 +1199,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1227,18 +1226,18 @@
       <c r="I14" s="6">
         <v>1.33</v>
       </c>
-      <c r="J14" s="10">
-        <v>5</v>
-      </c>
-      <c r="K14" s="8">
+      <c r="J14" s="9">
+        <v>5</v>
+      </c>
+      <c r="K14">
         <v>7243273</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1265,18 +1264,18 @@
       <c r="I15" s="6">
         <v>3.12</v>
       </c>
-      <c r="J15" s="10">
-        <v>5</v>
-      </c>
-      <c r="K15" s="8">
+      <c r="J15" s="9">
+        <v>5</v>
+      </c>
+      <c r="K15">
         <v>7156193</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1303,18 +1302,18 @@
       <c r="I16" s="6">
         <v>12.5</v>
       </c>
-      <c r="J16" s="10">
-        <v>5</v>
-      </c>
-      <c r="K16" s="8">
+      <c r="J16" s="9">
+        <v>5</v>
+      </c>
+      <c r="K16">
         <v>7439127</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1341,18 +1340,18 @@
       <c r="I17" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J17" s="10">
-        <v>5</v>
-      </c>
-      <c r="K17" s="8">
+      <c r="J17" s="9">
+        <v>5</v>
+      </c>
+      <c r="K17">
         <v>6084413</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1379,18 +1378,18 @@
       <c r="I18" s="6">
         <v>8.48</v>
       </c>
-      <c r="J18" s="10">
-        <v>5</v>
-      </c>
-      <c r="K18" s="8">
+      <c r="J18" s="9">
+        <v>5</v>
+      </c>
+      <c r="K18">
         <v>7635871</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1417,18 +1416,18 @@
       <c r="I19" s="6">
         <v>5.65</v>
       </c>
-      <c r="J19" s="10">
-        <v>5</v>
-      </c>
-      <c r="K19" s="8">
+      <c r="J19" s="9">
+        <v>5</v>
+      </c>
+      <c r="K19">
         <v>10748744</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1455,18 +1454,18 @@
       <c r="I20" s="6">
         <v>4.24</v>
       </c>
-      <c r="J20" s="10">
-        <v>5</v>
-      </c>
-      <c r="K20" s="8">
+      <c r="J20" s="9">
+        <v>5</v>
+      </c>
+      <c r="K20">
         <v>7404667</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1493,18 +1492,18 @@
       <c r="I21" s="6">
         <v>6.9</v>
       </c>
-      <c r="J21" s="10">
-        <v>5</v>
-      </c>
-      <c r="K21" s="8">
+      <c r="J21" s="9">
+        <v>5</v>
+      </c>
+      <c r="K21">
         <v>7237524</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1531,18 +1530,18 @@
       <c r="I22" s="6">
         <v>2.48</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>4.032258064516129</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22">
         <v>7328359</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1569,18 +1568,18 @@
       <c r="I23" s="6">
         <v>0.64600000000000002</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>15.479876160990711</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23">
         <v>7680303</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1607,18 +1606,18 @@
       <c r="I24" s="6">
         <v>2.41</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>4.1493775933609953</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24">
         <v>7433637</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1645,18 +1644,18 @@
       <c r="I25" s="6">
         <v>1.18</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>8.4745762711864412</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25">
         <v>7749770</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1683,18 +1682,18 @@
       <c r="I26" s="6">
         <v>10.4</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26">
         <v>7073397</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1721,18 +1720,18 @@
       <c r="I27" s="6">
         <v>9.76</v>
       </c>
-      <c r="J27" s="10">
-        <v>5</v>
-      </c>
-      <c r="K27" s="8">
+      <c r="J27" s="9">
+        <v>5</v>
+      </c>
+      <c r="K27">
         <v>7138988</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1762,15 +1761,15 @@
       <c r="J28" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28">
         <v>9761671</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1800,15 +1799,15 @@
       <c r="J29">
         <v>5</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29">
         <v>7557623</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1838,15 +1837,15 @@
       <c r="J30">
         <v>5</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30">
         <v>8579039</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1876,15 +1875,15 @@
       <c r="J31">
         <v>5</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31">
         <v>8379765</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1914,15 +1913,15 @@
       <c r="J32">
         <v>5</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32">
         <v>8717628</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1952,15 +1951,15 @@
       <c r="J33">
         <v>5</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33">
         <v>7862673</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1990,15 +1989,15 @@
       <c r="J34">
         <v>5</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34">
         <v>7690750</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="L34" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2028,15 +2027,15 @@
       <c r="J35">
         <v>5</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35">
         <v>9002102</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L35" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2066,15 +2065,15 @@
       <c r="J36">
         <v>5</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36">
         <v>7737452</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="L36" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2104,15 +2103,15 @@
       <c r="J37">
         <v>5</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37">
         <v>6688367</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="L37" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2142,15 +2141,15 @@
       <c r="J38">
         <v>5</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38">
         <v>7160307</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L38" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2180,15 +2179,15 @@
       <c r="J39">
         <v>5</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39">
         <v>7412867</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2218,15 +2217,15 @@
       <c r="J40">
         <v>5</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40">
         <v>8347449</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2256,15 +2255,15 @@
       <c r="J41">
         <v>5</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41">
         <v>6819619</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2294,15 +2293,15 @@
       <c r="J42">
         <v>5</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42">
         <v>17944222</v>
       </c>
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2332,15 +2331,15 @@
       <c r="J43">
         <v>5</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43">
         <v>9024416</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2370,15 +2369,15 @@
       <c r="J44">
         <v>5</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44">
         <v>7875841</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2408,15 +2407,15 @@
       <c r="J45">
         <v>5</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45">
         <v>7940535</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="L45" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2446,15 +2445,15 @@
       <c r="J46">
         <v>5</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46">
         <v>8577090</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="L46" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2484,15 +2483,15 @@
       <c r="J47">
         <v>5</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47">
         <v>8870876</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="L47" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2522,15 +2521,15 @@
       <c r="J48">
         <v>12.315270935960591</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48">
         <v>7975280</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="L48" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2560,15 +2559,15 @@
       <c r="J49">
         <v>35.842293906810035</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49">
         <v>2170432</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="L49" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2598,15 +2597,15 @@
       <c r="J50">
         <v>7.8740157480314963</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50">
         <v>8990865</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2636,15 +2635,15 @@
       <c r="J51">
         <v>14.388489208633095</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51">
         <v>6238903</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="L51" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2674,15 +2673,15 @@
       <c r="J52">
         <v>1.3869625520110958</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52">
         <v>8335257</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2712,10 +2711,10 @@
       <c r="J53">
         <v>5</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53">
         <v>8520786</v>
       </c>
-      <c r="L53" s="11" t="s">
+      <c r="L53" s="10" t="s">
         <v>58</v>
       </c>
     </row>

--- a/fastqFiles/fastq_fullrun_hbrown_03.04.20.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_03.04.20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237C478F-92B4-C243-9D54-3C7DBAC17C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E79148-771C-3A42-8F46-1F0E1241FB13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14840" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
   </bookViews>
@@ -89,163 +89,163 @@
     <t>HighOutput</t>
   </si>
   <si>
-    <t>Brent/Brent_6a-10_GTAC10_SIC_Index2_07_GGCAGCG_GAGTTGGT_S11_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-11_GTAC11_SIC_Index2_07_CCATCAT_GAGTTGGT_S12_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-12_GTAC12_SIC_Index2_07_TAACAAG_GAGTTGGT_S13_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-13_GTAC13_SIC_Index2_07_GAGGCGT_GAGTTGGT_S14_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-14_GTAC14_SIC_Index2_07_TTTAACT_GAGTTGGT_S15_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-15_GTAC15_SIC_Index2_07_GGTCCTC_GAGTTGGT_S16_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-16_GTAC16_SIC_Index2_07_CGGTGGC_GAGTTGGT_S17_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-17_GTAC17_SIC_Index2_07_ACTGTCG_GAGTTGGT_S18_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-18_GTAC18_SIC_Index2_07_GTATTTG_GAGTTGGT_S19_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-19_GTAC19_SIC_Index2_07_GAGTACG_GAGTTGGT_S20_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-1_GTAC1_SIC_Index2_07_TGAGGTT_GAGTTGGT_S2_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-20_GTAC20_SIC_Index2_07_ACAGATA_GAGTTGGT_S21_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-21_GTAC21_SIC_Index2_07_CTCAATG_GAGTTGGT_S22_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-22_GTAC22_SIC_Index2_07_AAATGCA_GAGTTGGT_S23_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-23_GTAC23_SIC_Index2_07_ACGCGGG_GAGTTGGT_S24_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-24_GTAC24_SIC_Index2_07_GGAGTCC_GAGTTGGT_S25_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-25_GTAC25_SIC_Index2_07_CGTCGCT_GAGTTGGT_S26_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-2_GTAC2_SIC_Index2_07_GCTTAGA_GAGTTGGT_S3_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-3_GTAC3_SIC_Index2_07_ATGACAG_GAGTTGGT_S4_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-4_GTAC4_SIC_Index2_07_CACCTCC_GAGTTGGT_S5_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-5_GTAC5_SIC_Index2_07_ATCGAGC_GAGTTGGT_S6_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-6_GTAC6_SIC_Index2_07_TACTCTA_GAGTTGGT_S7_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-7_GTAC7_SIC_Index2_07_AGACTGA_GAGTTGGT_S8_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-8_GTAC8_SIC_Index2_07_CTTGGAA_GAGTTGGT_S9_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-9_GTAC9_SIC_Index2_07_CCGATTA_GAGTTGGT_S10_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-10_GTAC10_SIC_Index2_08_GGCAGCG_AAGCACGT_S37_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-11_GTAC11_SIC_Index2_08_CCATCAT_AAGCACGT_S38_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-12_GTAC12_SIC_Index2_08_TAACAAG_AAGCACGT_S39_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-13_GTAC13_SIC_Index2_08_GAGGCGT_AAGCACGT_S40_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-14_GTAC14_SIC_Index2_08_TTTAACT_AAGCACGT_S41_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-16_GTAC16_SIC_Index2_08_CGGTGGC_AAGCACGT_S43_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-17_GTAC17_SIC_Index2_08_ACTGTCG_AAGCACGT_S44_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-18_GTAC18_SIC_Index2_08_GTATTTG_AAGCACGT_S45_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-19_GTAC19_SIC_Index2_08_GAGTACG_AAGCACGT_S46_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-20_GTAC20_SIC_Index2_08_ACAGATA_AAGCACGT_S47_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-22_GTAC22_SIC_Index2_08_AAATGCA_AAGCACGT_S49_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-23_GTAC23_SIC_Index2_08_ACGCGGG_AAGCACGT_S50_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-24_GTAC24_SIC_Index2_08_GGAGTCC_AAGCACGT_S51_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-25_GTAC25_SIC_Index2_08_CGTCGCT_AAGCACGT_S52_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-26_GTAC26_SIC_Index2_08_TCAACTG_AAGCACGT_S53_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-2_GTAC2_SIC_Index2_08_GCTTAGA_AAGCACGT_S29_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-3_GTAC3_SIC_Index2_08_ATGACAG_AAGCACGT_S30_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-4_GTAC4_SIC_Index2_08_CACCTCC_AAGCACGT_S31_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-5_GTAC5_SIC_Index2_08_ATCGAGC_AAGCACGT_S32_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-6_GTAC6_SIC_Index2_08_TACTCTA_AAGCACGT_S33_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-7_GTAC7_SIC_Index2_08_AGACTGA_AAGCACGT_S34_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-8_GTAC8_SIC_Index2_08_CTTGGAA_AAGCACGT_S35_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-9_GTAC9_SIC_Index2_08_CCGATTA_AAGCACGT_S36_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6a-26_GTAC26_SIC_Index2_07_TCAACTG_GAGTTGGT_S27_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-1_GTAC1_SIC_Index2_08_TGAGGTT_AAGCACGT_S28_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-15_GTAC15_SIC_Index2_08_GGTCCTC_AAGCACGT_S42_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>Brent/Brent_6c-21_GTAC21_SIC_Index2_08_CTCAATG_AAGCACGT_S48_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>Brent_6a-1_GTAC1_SIC_Index2_07_TGAGGTT_GAGTTGGT_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-2_GTAC2_SIC_Index2_07_GCTTAGA_GAGTTGGT_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-3_GTAC3_SIC_Index2_07_ATGACAG_GAGTTGGT_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-4_GTAC4_SIC_Index2_07_CACCTCC_GAGTTGGT_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-5_GTAC5_SIC_Index2_07_ATCGAGC_GAGTTGGT_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-6_GTAC6_SIC_Index2_07_TACTCTA_GAGTTGGT_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-7_GTAC7_SIC_Index2_07_AGACTGA_GAGTTGGT_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-8_GTAC8_SIC_Index2_07_CTTGGAA_GAGTTGGT_S9_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-9_GTAC9_SIC_Index2_07_CCGATTA_GAGTTGGT_S10_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-10_GTAC10_SIC_Index2_07_GGCAGCG_GAGTTGGT_S11_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-11_GTAC11_SIC_Index2_07_CCATCAT_GAGTTGGT_S12_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-12_GTAC12_SIC_Index2_07_TAACAAG_GAGTTGGT_S13_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-13_GTAC13_SIC_Index2_07_GAGGCGT_GAGTTGGT_S14_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-14_GTAC14_SIC_Index2_07_TTTAACT_GAGTTGGT_S15_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-15_GTAC15_SIC_Index2_07_GGTCCTC_GAGTTGGT_S16_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-16_GTAC16_SIC_Index2_07_CGGTGGC_GAGTTGGT_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-17_GTAC17_SIC_Index2_07_ACTGTCG_GAGTTGGT_S18_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-18_GTAC18_SIC_Index2_07_GTATTTG_GAGTTGGT_S19_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-19_GTAC19_SIC_Index2_07_GAGTACG_GAGTTGGT_S20_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-20_GTAC20_SIC_Index2_07_ACAGATA_GAGTTGGT_S21_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-21_GTAC21_SIC_Index2_07_CTCAATG_GAGTTGGT_S22_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-22_GTAC22_SIC_Index2_07_AAATGCA_GAGTTGGT_S23_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-23_GTAC23_SIC_Index2_07_ACGCGGG_GAGTTGGT_S24_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-24_GTAC24_SIC_Index2_07_GGAGTCC_GAGTTGGT_S25_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-25_GTAC25_SIC_Index2_07_CGTCGCT_GAGTTGGT_S26_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6a-26_GTAC26_SIC_Index2_07_TCAACTG_GAGTTGGT_S27_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-1_GTAC1_SIC_Index2_08_TGAGGTT_AAGCACGT_S28_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-2_GTAC2_SIC_Index2_08_GCTTAGA_AAGCACGT_S29_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-3_GTAC3_SIC_Index2_08_ATGACAG_AAGCACGT_S30_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-4_GTAC4_SIC_Index2_08_CACCTCC_AAGCACGT_S31_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-5_GTAC5_SIC_Index2_08_ATCGAGC_AAGCACGT_S32_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-6_GTAC6_SIC_Index2_08_TACTCTA_AAGCACGT_S33_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-7_GTAC7_SIC_Index2_08_AGACTGA_AAGCACGT_S34_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-8_GTAC8_SIC_Index2_08_CTTGGAA_AAGCACGT_S35_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-9_GTAC9_SIC_Index2_08_CCGATTA_AAGCACGT_S36_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-10_GTAC10_SIC_Index2_08_GGCAGCG_AAGCACGT_S37_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-11_GTAC11_SIC_Index2_08_CCATCAT_AAGCACGT_S38_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-12_GTAC12_SIC_Index2_08_TAACAAG_AAGCACGT_S39_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-13_GTAC13_SIC_Index2_08_GAGGCGT_AAGCACGT_S40_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-14_GTAC14_SIC_Index2_08_TTTAACT_AAGCACGT_S41_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-15_GTAC15_SIC_Index2_08_GGTCCTC_AAGCACGT_S42_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-16_GTAC16_SIC_Index2_08_CGGTGGC_AAGCACGT_S43_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-17_GTAC17_SIC_Index2_08_ACTGTCG_AAGCACGT_S44_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-18_GTAC18_SIC_Index2_08_GTATTTG_AAGCACGT_S45_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-19_GTAC19_SIC_Index2_08_GAGTACG_AAGCACGT_S46_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-20_GTAC20_SIC_Index2_08_ACAGATA_AAGCACGT_S47_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-21_GTAC21_SIC_Index2_08_CTCAATG_AAGCACGT_S48_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-22_GTAC22_SIC_Index2_08_AAATGCA_AAGCACGT_S49_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-23_GTAC23_SIC_Index2_08_ACGCGGG_AAGCACGT_S50_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-24_GTAC24_SIC_Index2_08_GGAGTCC_AAGCACGT_S51_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-25_GTAC25_SIC_Index2_08_CGTCGCT_AAGCACGT_S52_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6c-26_GTAC26_SIC_Index2_08_TCAACTG_AAGCACGT_S53_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CA217D-0C43-0B40-A462-5F05C8B33EE8}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -762,7 +762,7 @@
         <v>7130292</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="10"/>
@@ -783,7 +783,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -813,7 +813,7 @@
         <v>7465391</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N3" s="10"/>
     </row>
@@ -822,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -852,7 +852,7 @@
         <v>6918095</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N4" s="10"/>
     </row>
@@ -861,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -891,7 +891,7 @@
         <v>6938707</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -899,7 +899,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -929,7 +929,7 @@
         <v>7422430</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -937,7 +937,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -967,7 +967,7 @@
         <v>7328696</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -975,7 +975,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
@@ -1005,7 +1005,7 @@
         <v>7124114</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -1013,7 +1013,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -1043,7 +1043,7 @@
         <v>8048328</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -1081,7 +1081,7 @@
         <v>7263049</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -1119,7 +1119,7 @@
         <v>7789615</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
@@ -1157,7 +1157,7 @@
         <v>7374019</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -1165,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>7334606</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -1203,7 +1203,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
@@ -1233,7 +1233,7 @@
         <v>7243273</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -1241,7 +1241,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
@@ -1271,7 +1271,7 @@
         <v>7156193</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -1279,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3">
         <v>15</v>
@@ -1309,7 +1309,7 @@
         <v>7439127</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1317,7 +1317,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
@@ -1347,7 +1347,7 @@
         <v>6084413</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1355,7 +1355,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
@@ -1385,7 +1385,7 @@
         <v>7635871</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1393,7 +1393,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
@@ -1423,7 +1423,7 @@
         <v>10748744</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1431,7 +1431,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
@@ -1461,7 +1461,7 @@
         <v>7404667</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1469,7 +1469,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3">
         <v>20</v>
@@ -1499,7 +1499,7 @@
         <v>7237524</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1507,7 +1507,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3">
         <v>21</v>
@@ -1537,7 +1537,7 @@
         <v>7328359</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1545,7 +1545,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3">
         <v>22</v>
@@ -1575,7 +1575,7 @@
         <v>7680303</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1583,7 +1583,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3">
         <v>23</v>
@@ -1613,7 +1613,7 @@
         <v>7433637</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3">
         <v>24</v>
@@ -1651,7 +1651,7 @@
         <v>7749770</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1659,7 +1659,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C26" s="3">
         <v>25</v>
@@ -1689,7 +1689,7 @@
         <v>7073397</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1697,7 +1697,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3">
         <v>26</v>
@@ -1727,7 +1727,7 @@
         <v>7138988</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1735,7 +1735,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -1765,7 +1765,7 @@
         <v>9761671</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1773,7 +1773,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -1803,7 +1803,7 @@
         <v>7557623</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1811,7 +1811,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -1841,7 +1841,7 @@
         <v>8579039</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1849,7 +1849,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C31" s="3">
         <v>4</v>
@@ -1879,7 +1879,7 @@
         <v>8379765</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1887,7 +1887,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C32" s="3">
         <v>5</v>
@@ -1917,7 +1917,7 @@
         <v>8717628</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1925,7 +1925,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C33" s="3">
         <v>6</v>
@@ -1955,7 +1955,7 @@
         <v>7862673</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1963,7 +1963,7 @@
         <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C34" s="3">
         <v>7</v>
@@ -1993,7 +1993,7 @@
         <v>7690750</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2001,7 +2001,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C35" s="3">
         <v>8</v>
@@ -2031,7 +2031,7 @@
         <v>9002102</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2039,7 +2039,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C36" s="3">
         <v>9</v>
@@ -2069,7 +2069,7 @@
         <v>7737452</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2077,7 +2077,7 @@
         <v>16</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C37" s="3">
         <v>10</v>
@@ -2107,7 +2107,7 @@
         <v>6688367</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2115,7 +2115,7 @@
         <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C38" s="3">
         <v>11</v>
@@ -2145,7 +2145,7 @@
         <v>7160307</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2153,7 +2153,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C39" s="3">
         <v>12</v>
@@ -2183,7 +2183,7 @@
         <v>7412867</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2191,7 +2191,7 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C40" s="3">
         <v>13</v>
@@ -2221,7 +2221,7 @@
         <v>8347449</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2229,7 +2229,7 @@
         <v>16</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C41" s="3">
         <v>14</v>
@@ -2259,7 +2259,7 @@
         <v>6819619</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -2267,7 +2267,7 @@
         <v>16</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C42" s="3">
         <v>15</v>
@@ -2297,7 +2297,7 @@
         <v>17944222</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2305,7 +2305,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C43" s="3">
         <v>16</v>
@@ -2335,7 +2335,7 @@
         <v>9024416</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2343,7 +2343,7 @@
         <v>16</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C44" s="3">
         <v>17</v>
@@ -2373,7 +2373,7 @@
         <v>7875841</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2381,7 +2381,7 @@
         <v>16</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C45" s="3">
         <v>18</v>
@@ -2411,7 +2411,7 @@
         <v>7940535</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2419,7 +2419,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C46" s="3">
         <v>19</v>
@@ -2449,7 +2449,7 @@
         <v>8577090</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2457,7 +2457,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C47" s="3">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         <v>8870876</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2495,7 +2495,7 @@
         <v>16</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C48" s="3">
         <v>21</v>
@@ -2525,7 +2525,7 @@
         <v>7975280</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2533,7 +2533,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C49" s="3">
         <v>22</v>
@@ -2563,7 +2563,7 @@
         <v>2170432</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2571,7 +2571,7 @@
         <v>16</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C50" s="3">
         <v>23</v>
@@ -2601,7 +2601,7 @@
         <v>8990865</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2609,7 +2609,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C51" s="3">
         <v>24</v>
@@ -2639,7 +2639,7 @@
         <v>6238903</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2647,7 +2647,7 @@
         <v>16</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C52" s="3">
         <v>25</v>
@@ -2677,7 +2677,7 @@
         <v>8335257</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
         <v>16</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C53" s="3">
         <v>26</v>
@@ -2715,7 +2715,7 @@
         <v>8520786</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_fullrun_hbrown_03.04.20.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_03.04.20.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E79148-771C-3A42-8F46-1F0E1241FB13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EA268B-9357-2249-8353-91DD36789FF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14840" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="70">
   <si>
     <t>libraryDate</t>
   </si>
@@ -44,9 +44,6 @@
     <t>runNumber</t>
   </si>
   <si>
-    <t>laneNumber</t>
-  </si>
-  <si>
     <t>sequencerModel</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>02.25.20</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>HighOutput</t>
@@ -328,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -348,6 +342,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,20 +659,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CA217D-0C43-0B40-A462-5F05C8B33EE8}">
-  <dimension ref="A1:Z53"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="10" width="10.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,21 +694,19 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -725,14 +720,13 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -740,32 +734,30 @@
       <c r="D2" s="4">
         <v>4267</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6">
+        <v>26.2</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>7130292</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="6">
-        <v>26.2</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2">
-        <v>7130292</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="10"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="10"/>
+      <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -776,14 +768,13 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -791,38 +782,35 @@
       <c r="D3" s="4">
         <v>4267</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="6">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6">
         <v>33.4</v>
       </c>
-      <c r="J3" s="9">
-        <v>5</v>
-      </c>
-      <c r="K3">
+      <c r="I3" s="9">
+        <v>5</v>
+      </c>
+      <c r="J3">
         <v>7465391</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -830,38 +818,35 @@
       <c r="D4" s="4">
         <v>4267</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="6">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6">
         <v>6.74</v>
       </c>
-      <c r="J4" s="9">
-        <v>5</v>
-      </c>
-      <c r="K4">
+      <c r="I4" s="9">
+        <v>5</v>
+      </c>
+      <c r="J4">
         <v>6918095</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -869,37 +854,34 @@
       <c r="D5" s="4">
         <v>4267</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="6">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6">
         <v>3.62</v>
       </c>
-      <c r="J5" s="9">
-        <v>5</v>
-      </c>
-      <c r="K5">
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+      <c r="J5">
         <v>6938707</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -907,37 +889,34 @@
       <c r="D6" s="4">
         <v>4267</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="6">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6">
         <v>9.43</v>
       </c>
-      <c r="J6" s="9">
-        <v>5</v>
-      </c>
-      <c r="K6">
+      <c r="I6" s="9">
+        <v>5</v>
+      </c>
+      <c r="J6">
         <v>7422430</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K6" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -945,37 +924,34 @@
       <c r="D7" s="4">
         <v>4267</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="6">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6">
         <v>3.48</v>
       </c>
-      <c r="J7" s="9">
-        <v>5</v>
-      </c>
-      <c r="K7">
+      <c r="I7" s="9">
+        <v>5</v>
+      </c>
+      <c r="J7">
         <v>7328696</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K7" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
@@ -983,37 +959,34 @@
       <c r="D8" s="4">
         <v>4267</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="6">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6">
         <v>2.84</v>
       </c>
-      <c r="J8" s="9">
-        <v>5</v>
-      </c>
-      <c r="K8">
+      <c r="I8" s="9">
+        <v>5</v>
+      </c>
+      <c r="J8">
         <v>7124114</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K8" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -1021,37 +994,34 @@
       <c r="D9" s="4">
         <v>4267</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="6">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J9" s="9">
-        <v>5</v>
-      </c>
-      <c r="K9">
+      <c r="I9" s="9">
+        <v>5</v>
+      </c>
+      <c r="J9">
         <v>8048328</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K9" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -1059,37 +1029,34 @@
       <c r="D10" s="4">
         <v>4267</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="6">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6">
         <v>9.31</v>
       </c>
-      <c r="J10" s="9">
-        <v>5</v>
-      </c>
-      <c r="K10">
+      <c r="I10" s="9">
+        <v>5</v>
+      </c>
+      <c r="J10">
         <v>7263049</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K10" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -1097,151 +1064,139 @@
       <c r="D11" s="4">
         <v>4267</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="6">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6">
         <v>12.6</v>
       </c>
-      <c r="J11" s="9">
-        <v>5</v>
-      </c>
-      <c r="K11">
+      <c r="I11" s="9">
+        <v>5</v>
+      </c>
+      <c r="J11">
         <v>7789615</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4267</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="I12" s="9">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>7374019</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4267</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6">
+        <v>6.34</v>
+      </c>
+      <c r="I13" s="9">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>7334606</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4">
-        <v>4267</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="J12" s="9">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>7374019</v>
-      </c>
-      <c r="L12" s="7" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4267</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.33</v>
+      </c>
+      <c r="I14" s="9">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>7243273</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4">
-        <v>4267</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="6">
-        <v>6.34</v>
-      </c>
-      <c r="J13" s="9">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>7334606</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4267</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1.33</v>
-      </c>
-      <c r="J14" s="9">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>7243273</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
@@ -1249,151 +1204,139 @@
       <c r="D15" s="4">
         <v>4267</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="6">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6">
         <v>3.12</v>
       </c>
-      <c r="J15" s="9">
-        <v>5</v>
-      </c>
-      <c r="K15">
+      <c r="I15" s="9">
+        <v>5</v>
+      </c>
+      <c r="J15">
         <v>7156193</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="K15" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4267</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>7439127</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4267</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I17" s="9">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>6084413</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4">
-        <v>4267</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="J16" s="9">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>7439127</v>
-      </c>
-      <c r="L16" s="10" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4267</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="6">
+        <v>8.48</v>
+      </c>
+      <c r="I18" s="9">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>7635871</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4">
-        <v>4267</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J17" s="9">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>6084413</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4">
-        <v>4267</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="6">
-        <v>8.48</v>
-      </c>
-      <c r="J18" s="9">
-        <v>5</v>
-      </c>
-      <c r="K18">
-        <v>7635871</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
@@ -1401,37 +1344,34 @@
       <c r="D19" s="4">
         <v>4267</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>17</v>
+      <c r="E19" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="6">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6">
         <v>5.65</v>
       </c>
-      <c r="J19" s="9">
-        <v>5</v>
-      </c>
-      <c r="K19">
+      <c r="I19" s="9">
+        <v>5</v>
+      </c>
+      <c r="J19">
         <v>10748744</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K19" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
@@ -1439,37 +1379,34 @@
       <c r="D20" s="4">
         <v>4267</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>17</v>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="6">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="6">
         <v>4.24</v>
       </c>
-      <c r="J20" s="9">
-        <v>5</v>
-      </c>
-      <c r="K20">
+      <c r="I20" s="9">
+        <v>5</v>
+      </c>
+      <c r="J20">
         <v>7404667</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3">
         <v>20</v>
@@ -1477,37 +1414,34 @@
       <c r="D21" s="4">
         <v>4267</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>17</v>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="6">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="6">
         <v>6.9</v>
       </c>
-      <c r="J21" s="9">
-        <v>5</v>
-      </c>
-      <c r="K21">
+      <c r="I21" s="9">
+        <v>5</v>
+      </c>
+      <c r="J21">
         <v>7237524</v>
       </c>
-      <c r="L21" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K21" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3">
         <v>21</v>
@@ -1515,37 +1449,34 @@
       <c r="D22" s="4">
         <v>4267</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>17</v>
+      <c r="E22" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="6">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="6">
         <v>2.48</v>
       </c>
-      <c r="J22" s="9">
+      <c r="I22" s="9">
         <v>4.032258064516129</v>
       </c>
-      <c r="K22">
+      <c r="J22">
         <v>7328359</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3">
         <v>22</v>
@@ -1553,37 +1484,34 @@
       <c r="D23" s="4">
         <v>4267</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>17</v>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="6">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="6">
         <v>0.64600000000000002</v>
       </c>
-      <c r="J23" s="9">
+      <c r="I23" s="9">
         <v>15.479876160990711</v>
       </c>
-      <c r="K23">
+      <c r="J23">
         <v>7680303</v>
       </c>
-      <c r="L23" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K23" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3">
         <v>23</v>
@@ -1591,37 +1519,34 @@
       <c r="D24" s="4">
         <v>4267</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>17</v>
+      <c r="E24" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="6">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="6">
         <v>2.41</v>
       </c>
-      <c r="J24" s="9">
+      <c r="I24" s="9">
         <v>4.1493775933609953</v>
       </c>
-      <c r="K24">
+      <c r="J24">
         <v>7433637</v>
       </c>
-      <c r="L24" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3">
         <v>24</v>
@@ -1629,37 +1554,34 @@
       <c r="D25" s="4">
         <v>4267</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>17</v>
+      <c r="E25" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="6">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="6">
         <v>1.18</v>
       </c>
-      <c r="J25" s="9">
+      <c r="I25" s="9">
         <v>8.4745762711864412</v>
       </c>
-      <c r="K25">
+      <c r="J25">
         <v>7749770</v>
       </c>
-      <c r="L25" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K25" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3">
         <v>25</v>
@@ -1667,37 +1589,34 @@
       <c r="D26" s="4">
         <v>4267</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>17</v>
+      <c r="E26" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="6">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="6">
         <v>10.4</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26">
+      <c r="I26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26">
         <v>7073397</v>
       </c>
-      <c r="L26" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K26" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3">
         <v>26</v>
@@ -1705,37 +1624,34 @@
       <c r="D27" s="4">
         <v>4267</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>17</v>
+      <c r="E27" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="6">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="6">
         <v>9.76</v>
       </c>
-      <c r="J27" s="9">
-        <v>5</v>
-      </c>
-      <c r="K27">
+      <c r="I27" s="9">
+        <v>5</v>
+      </c>
+      <c r="J27">
         <v>7138988</v>
       </c>
-      <c r="L27" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K27" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -1743,37 +1659,34 @@
       <c r="D28" s="4">
         <v>4267</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>17</v>
+      <c r="E28" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28">
         <v>14</v>
       </c>
-      <c r="J28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28">
+      <c r="I28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28">
         <v>9761671</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K28" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -1781,37 +1694,34 @@
       <c r="D29" s="4">
         <v>4267</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>17</v>
+      <c r="E29" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>2.98</v>
       </c>
       <c r="I29">
-        <v>2.98</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29">
         <v>7557623</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K29" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -1819,37 +1729,34 @@
       <c r="D30" s="4">
         <v>4267</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>17</v>
+      <c r="E30" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>31.5</v>
       </c>
       <c r="I30">
-        <v>31.5</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30">
         <v>8579039</v>
       </c>
-      <c r="L30" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K30" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="3">
         <v>4</v>
@@ -1857,37 +1764,34 @@
       <c r="D31" s="4">
         <v>4267</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>17</v>
+      <c r="E31" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>26.1</v>
       </c>
       <c r="I31">
-        <v>26.1</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>5</v>
-      </c>
-      <c r="K31">
         <v>8379765</v>
       </c>
-      <c r="L31" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K31" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C32" s="3">
         <v>5</v>
@@ -1895,37 +1799,34 @@
       <c r="D32" s="4">
         <v>4267</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>17</v>
+      <c r="E32" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32">
+        <v>49.8</v>
       </c>
       <c r="I32">
-        <v>49.8</v>
+        <v>5</v>
       </c>
       <c r="J32">
-        <v>5</v>
-      </c>
-      <c r="K32">
         <v>8717628</v>
       </c>
-      <c r="L32" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C33" s="3">
         <v>6</v>
@@ -1933,37 +1834,34 @@
       <c r="D33" s="4">
         <v>4267</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>17</v>
+      <c r="E33" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>43.7</v>
       </c>
       <c r="I33">
-        <v>43.7</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>5</v>
-      </c>
-      <c r="K33">
         <v>7862673</v>
       </c>
-      <c r="L33" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K33" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34" s="3">
         <v>7</v>
@@ -1971,37 +1869,34 @@
       <c r="D34" s="4">
         <v>4267</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>17</v>
+      <c r="E34" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>15.2</v>
       </c>
       <c r="I34">
-        <v>15.2</v>
+        <v>5</v>
       </c>
       <c r="J34">
-        <v>5</v>
-      </c>
-      <c r="K34">
         <v>7690750</v>
       </c>
-      <c r="L34" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K34" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" s="3">
         <v>8</v>
@@ -2009,37 +1904,34 @@
       <c r="D35" s="4">
         <v>4267</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>17</v>
+      <c r="E35" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>7.58</v>
       </c>
       <c r="I35">
-        <v>7.58</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>5</v>
-      </c>
-      <c r="K35">
         <v>9002102</v>
       </c>
-      <c r="L35" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K35" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36" s="3">
         <v>9</v>
@@ -2047,37 +1939,34 @@
       <c r="D36" s="4">
         <v>4267</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>17</v>
+      <c r="E36" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>16.600000000000001</v>
       </c>
       <c r="I36">
-        <v>16.600000000000001</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>5</v>
-      </c>
-      <c r="K36">
         <v>7737452</v>
       </c>
-      <c r="L36" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K36" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C37" s="3">
         <v>10</v>
@@ -2085,151 +1974,139 @@
       <c r="D37" s="4">
         <v>4267</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>17</v>
+      <c r="E37" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>24.8</v>
       </c>
       <c r="I37">
-        <v>24.8</v>
+        <v>5</v>
       </c>
       <c r="J37">
-        <v>5</v>
-      </c>
-      <c r="K37">
         <v>6688367</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="K37" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="3">
+        <v>11</v>
+      </c>
+      <c r="D38" s="4">
+        <v>4267</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <v>76.2</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>7160307</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="3">
+        <v>12</v>
+      </c>
+      <c r="D39" s="4">
+        <v>4267</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>59.4</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>7412867</v>
+      </c>
+      <c r="K39" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="3">
-        <v>11</v>
-      </c>
-      <c r="D38" s="4">
-        <v>4267</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38">
-        <v>76.2</v>
-      </c>
-      <c r="J38">
-        <v>5</v>
-      </c>
-      <c r="K38">
-        <v>7160307</v>
-      </c>
-      <c r="L38" s="10" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="3">
+        <v>13</v>
+      </c>
+      <c r="D40" s="4">
+        <v>4267</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40">
+        <v>6.02</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>8347449</v>
+      </c>
+      <c r="K40" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="3">
-        <v>12</v>
-      </c>
-      <c r="D39" s="4">
-        <v>4267</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39">
-        <v>59.4</v>
-      </c>
-      <c r="J39">
-        <v>5</v>
-      </c>
-      <c r="K39">
-        <v>7412867</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="3">
-        <v>13</v>
-      </c>
-      <c r="D40" s="4">
-        <v>4267</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40">
-        <v>6.02</v>
-      </c>
-      <c r="J40">
-        <v>5</v>
-      </c>
-      <c r="K40">
-        <v>8347449</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41" s="3">
         <v>14</v>
@@ -2237,151 +2114,139 @@
       <c r="D41" s="4">
         <v>4267</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>17</v>
+      <c r="E41" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41">
+        <v>95.9</v>
       </c>
       <c r="I41">
-        <v>95.9</v>
+        <v>5</v>
       </c>
       <c r="J41">
-        <v>5</v>
-      </c>
-      <c r="K41">
         <v>6819619</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="K41" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="3">
+        <v>15</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4267</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>20.5</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>17944222</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="3">
+        <v>16</v>
+      </c>
+      <c r="D43" s="4">
+        <v>4267</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>30.7</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>9024416</v>
+      </c>
+      <c r="K43" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="3">
-        <v>15</v>
-      </c>
-      <c r="D42" s="4">
-        <v>4267</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42">
-        <v>20.5</v>
-      </c>
-      <c r="J42">
-        <v>5</v>
-      </c>
-      <c r="K42">
-        <v>17944222</v>
-      </c>
-      <c r="L42" s="10" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="3">
+        <v>17</v>
+      </c>
+      <c r="D44" s="4">
+        <v>4267</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <v>108</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>7875841</v>
+      </c>
+      <c r="K44" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="3">
-        <v>16</v>
-      </c>
-      <c r="D43" s="4">
-        <v>4267</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43">
-        <v>30.7</v>
-      </c>
-      <c r="J43">
-        <v>5</v>
-      </c>
-      <c r="K43">
-        <v>9024416</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="3">
-        <v>17</v>
-      </c>
-      <c r="D44" s="4">
-        <v>4267</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44">
-        <v>108</v>
-      </c>
-      <c r="J44">
-        <v>5</v>
-      </c>
-      <c r="K44">
-        <v>7875841</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45" s="3">
         <v>18</v>
@@ -2389,37 +2254,34 @@
       <c r="D45" s="4">
         <v>4267</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>17</v>
+      <c r="E45" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>58.6</v>
       </c>
       <c r="I45">
-        <v>58.6</v>
+        <v>5</v>
       </c>
       <c r="J45">
-        <v>5</v>
-      </c>
-      <c r="K45">
         <v>7940535</v>
       </c>
-      <c r="L45" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46" s="3">
         <v>19</v>
@@ -2427,37 +2289,34 @@
       <c r="D46" s="4">
         <v>4267</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>17</v>
+      <c r="E46" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <v>13.1</v>
       </c>
       <c r="I46">
-        <v>13.1</v>
+        <v>5</v>
       </c>
       <c r="J46">
-        <v>5</v>
-      </c>
-      <c r="K46">
         <v>8577090</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K46" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C47" s="3">
         <v>20</v>
@@ -2465,37 +2324,34 @@
       <c r="D47" s="4">
         <v>4267</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>17</v>
+      <c r="E47" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47">
+        <v>6.67</v>
       </c>
       <c r="I47">
-        <v>6.67</v>
+        <v>5</v>
       </c>
       <c r="J47">
-        <v>5</v>
-      </c>
-      <c r="K47">
         <v>8870876</v>
       </c>
-      <c r="L47" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C48" s="3">
         <v>21</v>
@@ -2503,37 +2359,34 @@
       <c r="D48" s="4">
         <v>4267</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>17</v>
+      <c r="E48" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>0.81200000000000006</v>
       </c>
       <c r="I48">
-        <v>0.81200000000000006</v>
+        <v>12.315270935960591</v>
       </c>
       <c r="J48">
-        <v>12.315270935960591</v>
-      </c>
-      <c r="K48">
         <v>7975280</v>
       </c>
-      <c r="L48" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C49" s="3">
         <v>22</v>
@@ -2541,37 +2394,34 @@
       <c r="D49" s="4">
         <v>4267</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>17</v>
+      <c r="E49" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <v>0.27900000000000003</v>
       </c>
       <c r="I49">
-        <v>0.27900000000000003</v>
+        <v>35.842293906810035</v>
       </c>
       <c r="J49">
-        <v>35.842293906810035</v>
-      </c>
-      <c r="K49">
         <v>2170432</v>
       </c>
-      <c r="L49" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C50" s="3">
         <v>23</v>
@@ -2579,37 +2429,34 @@
       <c r="D50" s="4">
         <v>4267</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>17</v>
+      <c r="E50" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>1.27</v>
       </c>
       <c r="I50">
-        <v>1.27</v>
+        <v>7.8740157480314963</v>
       </c>
       <c r="J50">
-        <v>7.8740157480314963</v>
-      </c>
-      <c r="K50">
         <v>8990865</v>
       </c>
-      <c r="L50" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K50" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C51" s="3">
         <v>24</v>
@@ -2617,37 +2464,34 @@
       <c r="D51" s="4">
         <v>4267</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>17</v>
+      <c r="E51" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51">
+        <v>0.69499999999999995</v>
       </c>
       <c r="I51">
-        <v>0.69499999999999995</v>
+        <v>14.388489208633095</v>
       </c>
       <c r="J51">
-        <v>14.388489208633095</v>
-      </c>
-      <c r="K51">
         <v>6238903</v>
       </c>
-      <c r="L51" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K51" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C52" s="3">
         <v>25</v>
@@ -2655,37 +2499,34 @@
       <c r="D52" s="4">
         <v>4267</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>17</v>
+      <c r="E52" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <v>7.21</v>
       </c>
       <c r="I52">
-        <v>7.21</v>
+        <v>1.3869625520110958</v>
       </c>
       <c r="J52">
-        <v>1.3869625520110958</v>
-      </c>
-      <c r="K52">
         <v>8335257</v>
       </c>
-      <c r="L52" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C53" s="3">
         <v>26</v>
@@ -2693,34 +2534,31 @@
       <c r="D53" s="4">
         <v>4267</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>17</v>
+      <c r="E53" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>7.23</v>
       </c>
       <c r="I53">
-        <v>7.23</v>
+        <v>5</v>
       </c>
       <c r="J53">
-        <v>5</v>
-      </c>
-      <c r="K53">
         <v>8520786</v>
       </c>
-      <c r="L53" s="10" t="s">
-        <v>71</v>
+      <c r="K53" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H55" xr:uid="{5ABA4B0F-43A6-BC4F-99CB-F0A0B5A6AA75}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G55" xr:uid="{5ABA4B0F-43A6-BC4F-99CB-F0A0B5A6AA75}">
       <formula1>"spikein, fullRNASeq, fullgDNASeq, fullChIPSeq, Rebalancing"</formula1>
     </dataValidation>
   </dataValidations>
